--- a/Lab8/lab8.xlsx
+++ b/Lab8/lab8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AiSD_Patryk_Winiarski\Lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC060F3F-4804-4F68-9C0C-E602AB4B6237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAF0057-8554-4536-ACBF-4DEBAE6A0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="2895" windowWidth="18900" windowHeight="11055" activeTab="3" xr2:uid="{F7715121-8130-4469-8569-0AD61DB3B50F}"/>
   </bookViews>
@@ -363,15 +363,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,6 +373,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2003,700 +2003,48 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Schemat blokowy: łącznik 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obraz 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BF1093-74E4-426A-8B76-1AD7EF295A44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A9E494-4DA3-48D2-9AF7-54046E9AC3B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="904875"/>
-          <a:ext cx="457200" cy="457200"/>
+          <a:off x="2076451" y="396082"/>
+          <a:ext cx="4667249" cy="3694906"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>A</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Schemat blokowy: łącznik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E976BB-C49D-4374-B811-9B926FD388E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3381375" y="1533525"/>
-          <a:ext cx="457200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>C</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Schemat blokowy: łącznik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7875992-C6C9-408D-9998-2E053E26669B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4143375" y="800100"/>
-          <a:ext cx="457200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>B</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Schemat blokowy: łącznik 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A87C3AA-91FE-4A86-83A3-EF861A60A75B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4552950" y="1743075"/>
-          <a:ext cx="457200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>E</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Schemat blokowy: łącznik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA5D273-CD3C-4DB9-8F16-94065B4F690A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="1933575"/>
-          <a:ext cx="457200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>D</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Schemat blokowy: łącznik 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2200CC-3E6B-42B4-B275-6C10E88D2444}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5314950" y="752475"/>
-          <a:ext cx="457200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>F</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>437870</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400330</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Łącznik prosty 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA0FEE-1511-425E-BB9F-8C71A03D2C39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="5"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2876270" y="1295120"/>
-          <a:ext cx="572060" cy="305360"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114580</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Łącznik prosty 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF6B055-E567-4115-80EC-5439285A2978}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="2" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2419350" y="1295120"/>
-          <a:ext cx="133630" cy="638455"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Łącznik prosty 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94462BD4-ED15-4B3F-BD37-0B8C9D563C3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="6"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2647950" y="1971675"/>
-          <a:ext cx="1905000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552730</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Łącznik prosty 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB82A876-59F1-439F-A1F2-ACA26FE6B210}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="7"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3771620" y="1190345"/>
-          <a:ext cx="438710" cy="410135"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Łącznik prosty 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946339CD-2061-48F5-86E5-9BC576064100}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="6"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2943225" y="1028700"/>
-          <a:ext cx="1200150" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66395</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>505105</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95530</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Łącznik prosty 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7E53AA-246F-44CC-B87C-60CC248AC69F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="7"/>
-          <a:endCxn id="7" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4943195" y="1142720"/>
-          <a:ext cx="438710" cy="667310"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3008,13 +2356,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L4" s="2"/>
@@ -3100,22 +2448,22 @@
       </c>
     </row>
     <row r="11" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3145,13 +2493,13 @@
       <c r="G10" s="1">
         <v>-4</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3159,7 +2507,7 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="19" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="15" t="s">
@@ -3204,7 +2552,7 @@
       </c>
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <v>-2</v>
       </c>
       <c r="H14">
@@ -3219,7 +2567,7 @@
       <c r="N14" s="10">
         <v>-13</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="22">
         <v>-15</v>
       </c>
     </row>
@@ -3254,7 +2602,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,34 +2623,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="1"/>
       <c r="J3" s="12" t="s">
         <v>0</v>
@@ -3321,15 +2669,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="I4" s="15" t="s">
         <v>0</v>
       </c>
@@ -3390,13 +2738,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="I7" s="16" t="s">
         <v>3</v>
       </c>
